--- a/data/trans_orig/P16A99-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A99-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA6B72B-DC59-40E1-A449-88F59CC6B4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4015A31-E692-4431-A1A1-CF0CD2615BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{939D9AC5-6AB8-41AC-A348-2FC7445E7DA1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E70265A-BF20-4224-AB78-B21667202671}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="224">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2007 (Tasa respuesta: 49,81%)</t>
   </si>
@@ -137,475 +137,481 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,82%</t>
+    <t>3,77%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>98,26%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
   </si>
   <si>
     <t>99,21%</t>
@@ -1116,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFEBBB7-A6C5-462E-A085-F323956517C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9567B52-EE7E-473F-AF08-6ECAC084CA09}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2647,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC32E37-0A5E-4904-B12C-F359E761F439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1433F6C-722F-43C4-8C44-AE872EF002A9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3254,7 +3260,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,7 +3278,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3287,7 +3293,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3299,10 +3305,10 @@
         <v>480786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3379,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3394,7 +3400,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3409,7 +3415,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,7 +3433,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3442,7 +3448,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3457,7 +3463,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3534,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3543,13 +3549,13 @@
         <v>1100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3564,7 +3570,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3588,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -3594,10 +3600,10 @@
         <v>61299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -3609,10 +3615,10 @@
         <v>173814</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -3683,13 +3689,13 @@
         <v>1048</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3713,13 +3719,13 @@
         <v>1048</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,10 +3740,10 @@
         <v>316207</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>17</v>
@@ -3764,10 +3770,10 @@
         <v>540486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -3844,7 +3850,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3859,7 +3865,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3892,7 +3898,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -3907,7 +3913,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -3993,13 +3999,13 @@
         <v>1048</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4008,13 +4014,13 @@
         <v>2177</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4023,13 +4029,13 @@
         <v>3225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,10 +4050,10 @@
         <v>1696771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>17</v>
@@ -4059,10 +4065,10 @@
         <v>1058638</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>17</v>
@@ -4074,13 +4080,13 @@
         <v>2755409</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,7 +4166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5E6299-7C6D-4255-BCB7-998E82817337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AACDAE-2052-4E67-AA42-ADD3375656C2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4177,7 +4183,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4290,7 +4296,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4305,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4320,7 +4326,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,7 +4344,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4353,7 +4359,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4368,7 +4374,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4445,7 +4451,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4460,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4475,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4499,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4508,7 +4514,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4523,7 +4529,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4600,7 +4606,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4615,7 +4621,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4630,7 +4636,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4663,7 +4669,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4678,7 +4684,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4755,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4770,7 +4776,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4785,7 +4791,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4809,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4818,7 +4824,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4833,7 +4839,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4910,7 +4916,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4925,7 +4931,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4940,7 +4946,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,7 +4964,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4973,7 +4979,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4988,7 +4994,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5065,7 +5071,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5080,7 +5086,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5107,13 +5113,13 @@
         <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>141729</v>
+        <v>141730</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5128,7 +5134,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5158,7 +5164,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>141729</v>
+        <v>141730</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5220,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5250,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,7 +5274,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5298,7 +5304,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5369,7 +5375,7 @@
         <v>1332</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
@@ -5390,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -5399,7 +5405,7 @@
         <v>1332</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
@@ -5420,7 +5426,7 @@
         <v>401964</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>177</v>
@@ -5438,7 +5444,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5450,7 +5456,7 @@
         <v>699232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>178</v>
@@ -5530,22 +5536,22 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -5578,7 +5584,7 @@
         <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>17</v>
@@ -5593,7 +5599,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -5691,7 +5697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56068F25-F753-44FE-BDA9-1773F4408D5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E85A7D-BFFA-4453-99BE-3EEEB5B920F5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5821,7 +5827,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5836,7 +5842,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5851,7 +5857,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,7 +5875,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5884,7 +5890,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -5899,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -5976,7 +5982,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5991,7 +5997,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6006,7 +6012,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,7 +6030,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -6039,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -6054,7 +6060,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -6131,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6146,7 +6152,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6179,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -6194,7 +6200,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -6301,7 +6307,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6316,7 +6322,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,7 +6355,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -6364,7 +6370,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -6441,7 +6447,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6456,7 +6462,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6471,7 +6477,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,7 +6495,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -6504,7 +6510,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -6519,7 +6525,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -6596,7 +6602,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6611,7 +6617,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6626,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,7 +6650,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -6659,7 +6665,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -6674,7 +6680,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -6766,7 +6772,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6814,7 +6820,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -6906,7 +6912,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6921,7 +6927,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6954,7 +6960,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -6969,7 +6975,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -6984,7 +6990,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -7061,7 +7067,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7076,7 +7082,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7091,7 +7097,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,7 +7115,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -7124,7 +7130,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -7139,7 +7145,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A99-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A99-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4015A31-E692-4431-A1A1-CF0CD2615BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA306C55-4D6B-405B-9C79-C4F2E51E69FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E70265A-BF20-4224-AB78-B21667202671}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5C37E12-8FED-4D31-9CAB-6385A4E19FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="218">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2007 (Tasa respuesta: 49,81%)</t>
   </si>
@@ -137,13 +137,13 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,77%</t>
+    <t>4,23%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>99,02%</t>
@@ -152,13 +152,13 @@
     <t>99,25%</t>
   </si>
   <si>
-    <t>96,23%</t>
+    <t>95,77%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,53%</t>
+    <t>98,62%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -278,7 +278,7 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,15%</t>
+    <t>0,18%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -293,7 +293,7 @@
     <t>99,97%</t>
   </si>
   <si>
-    <t>99,85%</t>
+    <t>99,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -338,25 +338,25 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,33%</t>
+    <t>3,39%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>96,67%</t>
+    <t>96,61%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,09%</t>
+    <t>98,8%</t>
   </si>
   <si>
     <t>2,06%</t>
@@ -380,202 +380,202 @@
     <t>1,76%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>98,24%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2016 (Tasa respuesta: 43,2%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>0,08%</t>
@@ -587,9 +587,6 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
@@ -599,9 +596,6 @@
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2023 (Tasa respuesta: 35,25%)</t>
   </si>
   <si>
@@ -650,28 +644,16 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
   </si>
   <si>
     <t>99,35%</t>
@@ -1122,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9567B52-EE7E-473F-AF08-6ECAC084CA09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93493881-0F37-4DE3-951A-0F495AB39A89}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2653,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1433F6C-722F-43C4-8C44-AE872EF002A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BC2B81-BF71-4EF8-B14C-6C9D8A4D0B3E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4005,7 +3987,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4014,13 +3996,13 @@
         <v>2177</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4029,13 +4011,13 @@
         <v>3225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,7 +4035,7 @@
         <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>17</v>
@@ -4065,10 +4047,10 @@
         <v>1058638</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>17</v>
@@ -4080,10 +4062,10 @@
         <v>2755409</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>141</v>
@@ -4166,7 +4148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AACDAE-2052-4E67-AA42-ADD3375656C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C879E5-A161-4093-B5A1-9FB595D902EA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4606,7 +4588,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4621,7 +4603,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4636,7 +4618,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,7 +4636,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4669,7 +4651,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4684,7 +4666,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4761,7 +4743,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4776,7 +4758,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4791,7 +4773,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4791,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4824,7 +4806,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4839,7 +4821,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4916,7 +4898,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4931,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4946,7 +4928,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,7 +4946,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4979,7 +4961,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4994,7 +4976,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5071,7 +5053,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5086,7 +5068,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5119,7 +5101,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5256,7 +5238,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,7 +5286,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5381,7 +5363,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5396,7 +5378,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -5411,7 +5393,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,7 +5411,7 @@
         <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>17</v>
@@ -5444,7 +5426,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5459,7 +5441,7 @@
         <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>17</v>
@@ -5566,7 +5548,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,7 +5563,7 @@
         <v>1704362</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>28</v>
@@ -5599,7 +5581,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -5611,10 +5593,10 @@
         <v>2950288</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>17</v>
@@ -5697,7 +5679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E85A7D-BFFA-4453-99BE-3EEEB5B920F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ED6B09-A72C-421F-8B21-2E475843047D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5714,7 +5696,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5827,7 +5809,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5857,7 +5839,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,7 +5857,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5905,7 +5887,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -5982,37 +5964,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,7 +6012,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -6045,7 +6027,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -6060,7 +6042,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -6137,7 +6119,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6152,7 +6134,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6185,7 +6167,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -6200,7 +6182,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -6307,7 +6289,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6322,7 +6304,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,7 +6337,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -6370,7 +6352,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -6447,7 +6429,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6462,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6477,7 +6459,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,7 +6477,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -6510,7 +6492,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -6525,7 +6507,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -6602,7 +6584,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6617,7 +6599,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6632,7 +6614,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,7 +6632,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -6665,7 +6647,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -6680,7 +6662,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -6772,7 +6754,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6820,7 +6802,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -6927,7 +6909,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6975,7 +6957,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -7067,7 +7049,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7082,7 +7064,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7115,7 +7097,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -7130,7 +7112,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
